--- a/biology/Écologie/Skagit_(fleuve)/Skagit_(fleuve).xlsx
+++ b/biology/Écologie/Skagit_(fleuve)/Skagit_(fleuve).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Skagit (anglais : Skagit River) est un fleuve qui prend sa source en Colombie-Britannique (Canada) avant de rejoindre l'État de Washington (États-Unis) pour finalement se jeter dans le Puget Sound, une baie de l’océan Pacifique.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fleuve tire son nom de la tribu amérindienne Skagit qui vivait le long de la rivière depuis plus de 8 000 ans.
 Il est long d’environ 240 km et dispose d’un important bassin hydrographique de 6 900 km2. Il reçoit par exemple une partie des eaux provenant des flancs des volcans mont Baker et pic Glacier.
@@ -547,9 +561,11 @@
           <t>Milieu naturel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fleuve est le seul cours d’eau des États-Unis contigus à abriter les cinq espèces de saumons du Pacifique : le Saumon rose (Oncorhynchus gorbuscha), le Saumon du Pacifique (Oncorhynchus keta), le Saumon coho (Oncorhynchus kisutch), le Saumon rouge (Oncorhynchus nerka) et le Saumon royal (Oncorhynchus tshawytscha)[1]. Des échelles à poissons furent construites au niveau des barrages pour que les saumons puissent continuer à remonter le fleuve pour y pondre leurs œufs.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fleuve est le seul cours d’eau des États-Unis contigus à abriter les cinq espèces de saumons du Pacifique : le Saumon rose (Oncorhynchus gorbuscha), le Saumon du Pacifique (Oncorhynchus keta), le Saumon coho (Oncorhynchus kisutch), le Saumon rouge (Oncorhynchus nerka) et le Saumon royal (Oncorhynchus tshawytscha). Des échelles à poissons furent construites au niveau des barrages pour que les saumons puissent continuer à remonter le fleuve pour y pondre leurs œufs.
 			Saumon rose à bosse
 			Saumon du Pacifique
 			Saumon coho
